--- a/Code/Results/Cases/Case_5_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.486315605738014</v>
+        <v>1.282228905847376</v>
       </c>
       <c r="C2">
-        <v>1.061624850878729</v>
+        <v>0.5481659376659422</v>
       </c>
       <c r="D2">
-        <v>0.004820032940833663</v>
+        <v>0.04427475039713036</v>
       </c>
       <c r="E2">
-        <v>0.03484010466631737</v>
+        <v>0.09086768655857469</v>
       </c>
       <c r="F2">
-        <v>2.928152839068815</v>
+        <v>3.156006502200938</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.41691691325731</v>
+        <v>1.567393841450439</v>
       </c>
       <c r="J2">
-        <v>0.09345560759449967</v>
+        <v>0.1622475285560512</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6921590772273021</v>
+        <v>0.5066399124069605</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.147284314380784</v>
+        <v>1.200853625392824</v>
       </c>
       <c r="C3">
-        <v>0.9172859336793522</v>
+        <v>0.513979175820225</v>
       </c>
       <c r="D3">
-        <v>0.004502908998081478</v>
+        <v>0.04430237240105983</v>
       </c>
       <c r="E3">
-        <v>0.03360473676091225</v>
+        <v>0.09104512587845726</v>
       </c>
       <c r="F3">
-        <v>2.679755253732182</v>
+        <v>3.109600644876238</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.317255009807738</v>
+        <v>1.549139059382057</v>
       </c>
       <c r="J3">
-        <v>0.08908289322993568</v>
+        <v>0.161989779380832</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6024292670458493</v>
+        <v>0.4871025092023942</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.942426002473951</v>
+        <v>1.151708354095604</v>
       </c>
       <c r="C4">
-        <v>0.8304324484657286</v>
+        <v>0.4933472951890963</v>
       </c>
       <c r="D4">
-        <v>0.004319853079649327</v>
+        <v>0.04432452183462798</v>
       </c>
       <c r="E4">
-        <v>0.03289008135802973</v>
+        <v>0.0911834738309274</v>
       </c>
       <c r="F4">
-        <v>2.53334921203377</v>
+        <v>3.082774053227809</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.259049961685378</v>
+        <v>1.538704150164619</v>
       </c>
       <c r="J4">
-        <v>0.08655883461143077</v>
+        <v>0.1618953660720734</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5483959553769466</v>
+        <v>0.4754341351725273</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859657628157578</v>
+        <v>1.131886617910197</v>
       </c>
       <c r="C5">
-        <v>0.7954231126176126</v>
+        <v>0.4850291901940977</v>
       </c>
       <c r="D5">
-        <v>0.00424771984064054</v>
+        <v>0.04433485433509254</v>
       </c>
       <c r="E5">
-        <v>0.03260925210740595</v>
+        <v>0.09124725632208452</v>
       </c>
       <c r="F5">
-        <v>2.475071148484631</v>
+        <v>3.072258635838722</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.236010315563234</v>
+        <v>1.534645015360226</v>
       </c>
       <c r="J5">
-        <v>0.08556748677148818</v>
+        <v>0.1618729085122794</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5266099930655415</v>
+        <v>0.4707613769008105</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845953800382006</v>
+        <v>1.128607617262958</v>
       </c>
       <c r="C6">
-        <v>0.7896313589131125</v>
+        <v>0.4836533638362255</v>
       </c>
       <c r="D6">
-        <v>0.004235878368713752</v>
+        <v>0.04433664899382039</v>
       </c>
       <c r="E6">
-        <v>0.03256323127049399</v>
+        <v>0.09125829492779758</v>
       </c>
       <c r="F6">
-        <v>2.465473463591636</v>
+        <v>3.070537650114403</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.232223648639831</v>
+        <v>1.533982626986955</v>
       </c>
       <c r="J6">
-        <v>0.08540503403121846</v>
+        <v>0.1618701457202008</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5230055967523697</v>
+        <v>0.4699904280438219</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.941307021291323</v>
+        <v>1.151440200643378</v>
       </c>
       <c r="C7">
-        <v>0.8299588216491429</v>
+        <v>0.4932347526287515</v>
       </c>
       <c r="D7">
-        <v>0.004318870867616731</v>
+        <v>0.04432465588946011</v>
       </c>
       <c r="E7">
-        <v>0.03288625268674572</v>
+        <v>0.09118430402687849</v>
       </c>
       <c r="F7">
-        <v>2.532557844164231</v>
+        <v>3.082630555006318</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.258736580656745</v>
+        <v>1.538648626900354</v>
       </c>
       <c r="J7">
-        <v>0.08654531825810352</v>
+        <v>0.1618949983999158</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5481012410744697</v>
+        <v>0.4753707841543502</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368655838441271</v>
+        <v>1.254000162951058</v>
       </c>
       <c r="C8">
-        <v>1.011450458140644</v>
+        <v>0.5363034081224214</v>
       </c>
       <c r="D8">
-        <v>0.004707967630895871</v>
+        <v>0.04428319819928106</v>
       </c>
       <c r="E8">
-        <v>0.03440464668465992</v>
+        <v>0.09092277268185001</v>
       </c>
       <c r="F8">
-        <v>2.841140419349131</v>
+        <v>3.139658294903171</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.381888034146129</v>
+        <v>1.56093820798759</v>
       </c>
       <c r="J8">
-        <v>0.09191249721539663</v>
+        <v>0.1621453821328984</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6609786389356032</v>
+        <v>0.499835278947856</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.238968188833155</v>
+        <v>1.461667651512073</v>
       </c>
       <c r="C9">
-        <v>1.384518106489111</v>
+        <v>0.6236460041066607</v>
       </c>
       <c r="D9">
-        <v>0.005588203254768054</v>
+        <v>0.04424303362943949</v>
       </c>
       <c r="E9">
-        <v>0.03776220800580177</v>
+        <v>0.09064272450688726</v>
       </c>
       <c r="F9">
-        <v>3.502479309856739</v>
+        <v>3.264836396595712</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.650716008112511</v>
+        <v>1.610850791761834</v>
       </c>
       <c r="J9">
-        <v>0.1038750052502095</v>
+        <v>0.1631448726830129</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8924643606207709</v>
+        <v>0.5504225436411758</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.907662736635302</v>
+        <v>1.618315520527176</v>
       </c>
       <c r="C10">
-        <v>1.674028390388969</v>
+        <v>0.6896348235306959</v>
       </c>
       <c r="D10">
-        <v>0.006347473566898465</v>
+        <v>0.04423858127548308</v>
       </c>
       <c r="E10">
-        <v>0.04051121473566965</v>
+        <v>0.09057838001962715</v>
       </c>
       <c r="F10">
-        <v>4.034846216104796</v>
+        <v>3.365123124212118</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.870607299678568</v>
+        <v>1.651397602501632</v>
       </c>
       <c r="J10">
-        <v>0.1137952426397035</v>
+        <v>0.164192099401653</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.071438350314047</v>
+        <v>0.5892043350370599</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.220755443031578</v>
+        <v>1.690483181500724</v>
       </c>
       <c r="C11">
-        <v>1.81039336234636</v>
+        <v>0.7200632040287474</v>
       </c>
       <c r="D11">
-        <v>0.006728863700447452</v>
+        <v>0.04424200005815093</v>
       </c>
       <c r="E11">
-        <v>0.04183631792169962</v>
+        <v>0.09057971415335153</v>
       </c>
       <c r="F11">
-        <v>4.290336877723547</v>
+        <v>3.412592780672639</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.977005101767347</v>
+        <v>1.670705889722868</v>
       </c>
       <c r="J11">
-        <v>0.1186207251565321</v>
+        <v>0.1647371099159898</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.155508701184118</v>
+        <v>0.6072033333615821</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.340843399648634</v>
+        <v>1.717943016845311</v>
       </c>
       <c r="C12">
-        <v>1.86283140338935</v>
+        <v>0.7316455331151701</v>
       </c>
       <c r="D12">
-        <v>0.006879658828431445</v>
+        <v>0.04424407802852315</v>
       </c>
       <c r="E12">
-        <v>0.04235011210966633</v>
+        <v>0.09058461136797824</v>
       </c>
       <c r="F12">
-        <v>4.38931433497325</v>
+        <v>3.430837209423061</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.018358543579197</v>
+        <v>1.678143188681943</v>
       </c>
       <c r="J12">
-        <v>0.1204995253631438</v>
+        <v>0.1649534087570501</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.187796001844021</v>
+        <v>0.6140707741688658</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.314908084189483</v>
+        <v>1.712023185112059</v>
       </c>
       <c r="C13">
-        <v>1.851500105912294</v>
+        <v>0.729148399760561</v>
       </c>
       <c r="D13">
-        <v>0.006846877524375738</v>
+        <v>0.04424359564932967</v>
       </c>
       <c r="E13">
-        <v>0.04223890089648563</v>
+        <v>0.09058336146783752</v>
       </c>
       <c r="F13">
-        <v>4.367893134574132</v>
+        <v>3.426895948897482</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.009402484624417</v>
+        <v>1.676535819698373</v>
       </c>
       <c r="J13">
-        <v>0.1200924875183915</v>
+        <v>0.1649063831865902</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.180821036062724</v>
+        <v>0.6125894479265952</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.230603010636116</v>
+        <v>1.692739677314989</v>
       </c>
       <c r="C14">
-        <v>1.8146906380004</v>
+        <v>0.7210148865996757</v>
       </c>
       <c r="D14">
-        <v>0.006741134352324263</v>
+        <v>0.04424215531068065</v>
       </c>
       <c r="E14">
-        <v>0.04187833943338504</v>
+        <v>0.09058002907770657</v>
       </c>
       <c r="F14">
-        <v>4.298433178219938</v>
+        <v>3.414088359177583</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.980385050080258</v>
+        <v>1.671315233410567</v>
       </c>
       <c r="J14">
-        <v>0.1187742223116786</v>
+        <v>0.1647547059623804</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.158155505575479</v>
+        <v>0.6077672858467906</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.179170476722334</v>
+        <v>1.680945127950906</v>
       </c>
       <c r="C15">
-        <v>1.7922520651681</v>
+        <v>0.7160406830375905</v>
       </c>
       <c r="D15">
-        <v>0.006677232679147327</v>
+        <v>0.04424137509662884</v>
       </c>
       <c r="E15">
-        <v>0.04165908998074741</v>
+        <v>0.09057855960245043</v>
       </c>
       <c r="F15">
-        <v>4.25618731642794</v>
+        <v>3.406278418684877</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.962754198764657</v>
+        <v>1.66813388487374</v>
       </c>
       <c r="J15">
-        <v>0.1179736630635446</v>
+        <v>0.1646630919546936</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.144333293972153</v>
+        <v>0.6048203020945238</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.887400751072903</v>
+        <v>1.613617542779309</v>
       </c>
       <c r="C16">
-        <v>1.665221059630596</v>
+        <v>0.687654573766622</v>
       </c>
       <c r="D16">
-        <v>0.006323370205288725</v>
+        <v>0.04423846743501869</v>
       </c>
       <c r="E16">
-        <v>0.0404262222159506</v>
+        <v>0.09057890790669454</v>
       </c>
       <c r="F16">
-        <v>4.018443025458993</v>
+        <v>3.36205831491327</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.863794188970857</v>
+        <v>1.650153262963173</v>
       </c>
       <c r="J16">
-        <v>0.1134867152246173</v>
+        <v>0.1641578665666401</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.066003315633253</v>
+        <v>0.5880352648396894</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.710853379008029</v>
+        <v>1.572547427185327</v>
       </c>
       <c r="C17">
-        <v>1.588572164772359</v>
+        <v>0.6703461511021374</v>
       </c>
       <c r="D17">
-        <v>0.006116287767083062</v>
+        <v>0.04423807830435411</v>
       </c>
       <c r="E17">
-        <v>0.03968985353086829</v>
+        <v>0.09058695373831505</v>
       </c>
       <c r="F17">
-        <v>3.876214056877615</v>
+        <v>3.335406237059289</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.804814560354529</v>
+        <v>1.639344934870451</v>
       </c>
       <c r="J17">
-        <v>0.1108185665245003</v>
+        <v>0.1638655363569015</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.018676860085634</v>
+        <v>0.5778298106269375</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.610128979734554</v>
+        <v>1.549010364526339</v>
       </c>
       <c r="C18">
-        <v>1.544916106504843</v>
+        <v>0.6604293188091219</v>
       </c>
       <c r="D18">
-        <v>0.006000483857156791</v>
+        <v>0.04423836686897165</v>
       </c>
       <c r="E18">
-        <v>0.03927324547626121</v>
+        <v>0.0905944626656936</v>
       </c>
       <c r="F18">
-        <v>3.795639613952204</v>
+        <v>3.320250504437325</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.771480458296693</v>
+        <v>1.633209440244968</v>
       </c>
       <c r="J18">
-        <v>0.1093129104072759</v>
+        <v>0.1637038518788003</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9917010067009429</v>
+        <v>0.5719934852050628</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.576159497516414</v>
+        <v>1.541055754982892</v>
       </c>
       <c r="C19">
-        <v>1.530205218096455</v>
+        <v>0.65707823938709</v>
       </c>
       <c r="D19">
-        <v>0.005961809337622359</v>
+        <v>0.04423855256579623</v>
       </c>
       <c r="E19">
-        <v>0.03913334346822062</v>
+        <v>0.09059750018187707</v>
       </c>
       <c r="F19">
-        <v>3.768561236738066</v>
+        <v>3.315148804056179</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.760291197599557</v>
+        <v>1.631145961996253</v>
       </c>
       <c r="J19">
-        <v>0.1088079167902194</v>
+        <v>0.1636502157054593</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9826075690374267</v>
+        <v>0.5700231651225494</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.729560508270367</v>
+        <v>1.576910567530831</v>
       </c>
       <c r="C20">
-        <v>1.596686159190881</v>
+        <v>0.6721846700891092</v>
       </c>
       <c r="D20">
-        <v>0.006137982103399775</v>
+        <v>0.04423806669504216</v>
       </c>
       <c r="E20">
-        <v>0.03976751510306542</v>
+        <v>0.09058579912059095</v>
       </c>
       <c r="F20">
-        <v>3.891224947392431</v>
+        <v>3.338225384131647</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.811031042016651</v>
+        <v>1.640487088095298</v>
       </c>
       <c r="J20">
-        <v>0.111099550612991</v>
+        <v>0.1638959868816414</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.023689003570453</v>
+        <v>0.5789127210671126</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.255321872008381</v>
+        <v>1.698400133904954</v>
       </c>
       <c r="C21">
-        <v>1.825479645128326</v>
+        <v>0.7234022678422889</v>
       </c>
       <c r="D21">
-        <v>0.006772010104824311</v>
+        <v>0.04424255710822744</v>
       </c>
       <c r="E21">
-        <v>0.04198390806525687</v>
+        <v>0.09058088875302595</v>
       </c>
       <c r="F21">
-        <v>4.318772026115965</v>
+        <v>3.417842943363553</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.988878043937177</v>
+        <v>1.672845223313445</v>
       </c>
       <c r="J21">
-        <v>0.1191599743757621</v>
+        <v>0.1647989877617348</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.164800052017569</v>
+        <v>0.6091822687481709</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.60797807545481</v>
+        <v>1.778567605100022</v>
       </c>
       <c r="C22">
-        <v>1.979744942621323</v>
+        <v>0.7572246718000883</v>
       </c>
       <c r="D22">
-        <v>0.007224250570436297</v>
+        <v>0.0442500582821852</v>
       </c>
       <c r="E22">
-        <v>0.04350316846077362</v>
+        <v>0.09060327562829684</v>
       </c>
       <c r="F22">
-        <v>4.611371012805165</v>
+        <v>3.471445160357774</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.111391888978531</v>
+        <v>1.694726350248871</v>
       </c>
       <c r="J22">
-        <v>0.1247318414153682</v>
+        <v>0.1654469669525866</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.25969757168906</v>
+        <v>0.6292661339806784</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.418839940092937</v>
+        <v>1.735710201098982</v>
       </c>
       <c r="C23">
-        <v>1.896929396750863</v>
+        <v>0.7391408245700859</v>
       </c>
       <c r="D23">
-        <v>0.006978958666456592</v>
+        <v>0.04424563669012738</v>
       </c>
       <c r="E23">
-        <v>0.0426853650695076</v>
+        <v>0.09058898814592098</v>
       </c>
       <c r="F23">
-        <v>4.453883539508979</v>
+        <v>3.442692265771655</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.04537463923775</v>
+        <v>1.682980385206648</v>
       </c>
       <c r="J23">
-        <v>0.1217278042460634</v>
+        <v>0.1650958222088548</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.208778368277905</v>
+        <v>0.6185193630266497</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.72110061920813</v>
+        <v>1.574937759198292</v>
       </c>
       <c r="C24">
-        <v>1.593016553427674</v>
+        <v>0.671353369782878</v>
       </c>
       <c r="D24">
-        <v>0.006128164056166785</v>
+        <v>0.04423807034798299</v>
       </c>
       <c r="E24">
-        <v>0.03973238340674712</v>
+        <v>0.09058631214195323</v>
       </c>
       <c r="F24">
-        <v>3.884434825106382</v>
+        <v>3.336950328093394</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.808218793385038</v>
+        <v>1.639970476672161</v>
       </c>
       <c r="J24">
-        <v>0.1109724300444555</v>
+        <v>0.1638822003305336</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.021422293666014</v>
+        <v>0.5784230409499003</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.999152411797411</v>
+        <v>1.404778708955803</v>
       </c>
       <c r="C25">
-        <v>1.281283262528234</v>
+        <v>0.5997025805874614</v>
       </c>
       <c r="D25">
-        <v>0.005333702657308148</v>
+        <v>0.04424949877610285</v>
       </c>
       <c r="E25">
-        <v>0.03680837292608352</v>
+        <v>0.09069361587740765</v>
       </c>
       <c r="F25">
-        <v>3.316383115918882</v>
+        <v>3.229524848490968</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.574517374640862</v>
+        <v>1.596674322333826</v>
       </c>
       <c r="J25">
-        <v>0.1004605022362597</v>
+        <v>0.1628197483950728</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8284960943844339</v>
+        <v>0.5364553647189467</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.282228905847376</v>
+        <v>2.486315605737957</v>
       </c>
       <c r="C2">
-        <v>0.5481659376659422</v>
+        <v>1.061624850878843</v>
       </c>
       <c r="D2">
-        <v>0.04427475039713036</v>
+        <v>0.004820032940809238</v>
       </c>
       <c r="E2">
-        <v>0.09086768655857469</v>
+        <v>0.03484010466633514</v>
       </c>
       <c r="F2">
-        <v>3.156006502200938</v>
+        <v>2.928152839068872</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.567393841450439</v>
+        <v>1.41691691325731</v>
       </c>
       <c r="J2">
-        <v>0.1622475285560512</v>
+        <v>0.09345560759450677</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5066399124069605</v>
+        <v>0.6921590772272666</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.200853625392824</v>
+        <v>2.147284314380784</v>
       </c>
       <c r="C3">
-        <v>0.513979175820225</v>
+        <v>0.9172859336793238</v>
       </c>
       <c r="D3">
-        <v>0.04430237240105983</v>
+        <v>0.004502908998189614</v>
       </c>
       <c r="E3">
-        <v>0.09104512587845726</v>
+        <v>0.03360473676102771</v>
       </c>
       <c r="F3">
-        <v>3.109600644876238</v>
+        <v>2.679755253732196</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.549139059382057</v>
+        <v>1.317255009807752</v>
       </c>
       <c r="J3">
-        <v>0.161989779380832</v>
+        <v>0.08908289322992857</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4871025092023942</v>
+        <v>0.6024292670458564</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.151708354095604</v>
+        <v>1.942426002474065</v>
       </c>
       <c r="C4">
-        <v>0.4933472951890963</v>
+        <v>0.8304324484653307</v>
       </c>
       <c r="D4">
-        <v>0.04432452183462798</v>
+        <v>0.004319853079643554</v>
       </c>
       <c r="E4">
-        <v>0.0911834738309274</v>
+        <v>0.03289008135799598</v>
       </c>
       <c r="F4">
-        <v>3.082774053227809</v>
+        <v>2.533349212033755</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.538704150164619</v>
+        <v>1.259049961685378</v>
       </c>
       <c r="J4">
-        <v>0.1618953660720734</v>
+        <v>0.08655883461140235</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4754341351725273</v>
+        <v>0.5483959553769324</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.131886617910197</v>
+        <v>1.859657628157464</v>
       </c>
       <c r="C5">
-        <v>0.4850291901940977</v>
+        <v>0.7954231126171862</v>
       </c>
       <c r="D5">
-        <v>0.04433485433509254</v>
+        <v>0.004247719840509534</v>
       </c>
       <c r="E5">
-        <v>0.09124725632208452</v>
+        <v>0.03260925210737398</v>
       </c>
       <c r="F5">
-        <v>3.072258635838722</v>
+        <v>2.475071148484631</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.534645015360226</v>
+        <v>1.236010315563249</v>
       </c>
       <c r="J5">
-        <v>0.1618729085122794</v>
+        <v>0.08556748677139936</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4707613769008105</v>
+        <v>0.5266099930655344</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.128607617262958</v>
+        <v>1.845953800381864</v>
       </c>
       <c r="C6">
-        <v>0.4836533638362255</v>
+        <v>0.7896313589131125</v>
       </c>
       <c r="D6">
-        <v>0.04433664899382039</v>
+        <v>0.004235878368724411</v>
       </c>
       <c r="E6">
-        <v>0.09125829492779758</v>
+        <v>0.03256323127046912</v>
       </c>
       <c r="F6">
-        <v>3.070537650114403</v>
+        <v>2.465473463591664</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.533982626986955</v>
+        <v>1.232223648639845</v>
       </c>
       <c r="J6">
-        <v>0.1618701457202008</v>
+        <v>0.08540503403125044</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4699904280438219</v>
+        <v>0.5230055967523839</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.151440200643378</v>
+        <v>1.941307021291493</v>
       </c>
       <c r="C7">
-        <v>0.4932347526287515</v>
+        <v>0.8299588216490008</v>
       </c>
       <c r="D7">
-        <v>0.04432465588946011</v>
+        <v>0.0043188708675026</v>
       </c>
       <c r="E7">
-        <v>0.09118430402687849</v>
+        <v>0.03288625268674217</v>
       </c>
       <c r="F7">
-        <v>3.082630555006318</v>
+        <v>2.532557844164216</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.538648626900354</v>
+        <v>1.258736580656745</v>
       </c>
       <c r="J7">
-        <v>0.1618949983999158</v>
+        <v>0.08654531825809286</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4753707841543502</v>
+        <v>0.5481012410744697</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.254000162951058</v>
+        <v>2.368655838441157</v>
       </c>
       <c r="C8">
-        <v>0.5363034081224214</v>
+        <v>1.011450458140985</v>
       </c>
       <c r="D8">
-        <v>0.04428319819928106</v>
+        <v>0.004707967630762866</v>
       </c>
       <c r="E8">
-        <v>0.09092277268185001</v>
+        <v>0.03440464668465815</v>
       </c>
       <c r="F8">
-        <v>3.139658294903171</v>
+        <v>2.841140419349159</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.56093820798759</v>
+        <v>1.381888034146115</v>
       </c>
       <c r="J8">
-        <v>0.1621453821328984</v>
+        <v>0.09191249721536821</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.499835278947856</v>
+        <v>0.6609786389356174</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.461667651512073</v>
+        <v>3.238968188833269</v>
       </c>
       <c r="C9">
-        <v>0.6236460041066607</v>
+        <v>1.384518106489054</v>
       </c>
       <c r="D9">
-        <v>0.04424303362943949</v>
+        <v>0.005588203254990542</v>
       </c>
       <c r="E9">
-        <v>0.09064272450688726</v>
+        <v>0.03776220800579466</v>
       </c>
       <c r="F9">
-        <v>3.264836396595712</v>
+        <v>3.502479309856767</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.610850791761834</v>
+        <v>1.650716008112525</v>
       </c>
       <c r="J9">
-        <v>0.1631448726830129</v>
+        <v>0.1038750052501385</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5504225436411758</v>
+        <v>0.8924643606207567</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.618315520527176</v>
+        <v>3.907662736635075</v>
       </c>
       <c r="C10">
-        <v>0.6896348235306959</v>
+        <v>1.674028390388685</v>
       </c>
       <c r="D10">
-        <v>0.04423858127548308</v>
+        <v>0.006347473566665762</v>
       </c>
       <c r="E10">
-        <v>0.09057838001962715</v>
+        <v>0.04051121473566965</v>
       </c>
       <c r="F10">
-        <v>3.365123124212118</v>
+        <v>4.034846216104768</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.651397602501632</v>
+        <v>1.870607299678568</v>
       </c>
       <c r="J10">
-        <v>0.164192099401653</v>
+        <v>0.1137952426397746</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5892043350370599</v>
+        <v>1.071438350314047</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.690483181500724</v>
+        <v>4.220755443031635</v>
       </c>
       <c r="C11">
-        <v>0.7200632040287474</v>
+        <v>1.810393362346133</v>
       </c>
       <c r="D11">
-        <v>0.04424200005815093</v>
+        <v>0.006728863700475873</v>
       </c>
       <c r="E11">
-        <v>0.09057971415335153</v>
+        <v>0.04183631792170672</v>
       </c>
       <c r="F11">
-        <v>3.412592780672639</v>
+        <v>4.290336877723547</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.670705889722868</v>
+        <v>1.977005101767318</v>
       </c>
       <c r="J11">
-        <v>0.1647371099159898</v>
+        <v>0.1186207251565961</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6072033333615821</v>
+        <v>1.155508701184147</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.717943016845311</v>
+        <v>4.340843399648747</v>
       </c>
       <c r="C12">
-        <v>0.7316455331151701</v>
+        <v>1.862831403389293</v>
       </c>
       <c r="D12">
-        <v>0.04424407802852315</v>
+        <v>0.00687965882903141</v>
       </c>
       <c r="E12">
-        <v>0.09058461136797824</v>
+        <v>0.0423501121096006</v>
       </c>
       <c r="F12">
-        <v>3.430837209423061</v>
+        <v>4.38931433497325</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.678143188681943</v>
+        <v>2.018358543579197</v>
       </c>
       <c r="J12">
-        <v>0.1649534087570501</v>
+        <v>0.1204995253629377</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6140707741688658</v>
+        <v>1.187796001844021</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.712023185112059</v>
+        <v>4.314908084189426</v>
       </c>
       <c r="C13">
-        <v>0.729148399760561</v>
+        <v>1.85150010591201</v>
       </c>
       <c r="D13">
-        <v>0.04424359564932967</v>
+        <v>0.006846877524378403</v>
       </c>
       <c r="E13">
-        <v>0.09058336146783752</v>
+        <v>0.04223890089652649</v>
       </c>
       <c r="F13">
-        <v>3.426895948897482</v>
+        <v>4.367893134574103</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.676535819698373</v>
+        <v>2.009402484624431</v>
       </c>
       <c r="J13">
-        <v>0.1649063831865902</v>
+        <v>0.120092487518292</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6125894479265952</v>
+        <v>1.180821036062738</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.692739677314989</v>
+        <v>4.230603010636173</v>
       </c>
       <c r="C14">
-        <v>0.7210148865996757</v>
+        <v>1.8146906380004</v>
       </c>
       <c r="D14">
-        <v>0.04424215531068065</v>
+        <v>0.00674113435242063</v>
       </c>
       <c r="E14">
-        <v>0.09058002907770657</v>
+        <v>0.04187833943336017</v>
       </c>
       <c r="F14">
-        <v>3.414088359177583</v>
+        <v>4.298433178220023</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.671315233410567</v>
+        <v>1.980385050080301</v>
       </c>
       <c r="J14">
-        <v>0.1647547059623804</v>
+        <v>0.1187742223116715</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6077672858467906</v>
+        <v>1.158155505575465</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.680945127950906</v>
+        <v>4.179170476722447</v>
       </c>
       <c r="C15">
-        <v>0.7160406830375905</v>
+        <v>1.792252065167531</v>
       </c>
       <c r="D15">
-        <v>0.04424137509662884</v>
+        <v>0.006677232679117573</v>
       </c>
       <c r="E15">
-        <v>0.09057855960245043</v>
+        <v>0.04165908998080958</v>
       </c>
       <c r="F15">
-        <v>3.406278418684877</v>
+        <v>4.25618731642794</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.66813388487374</v>
+        <v>1.962754198764671</v>
       </c>
       <c r="J15">
-        <v>0.1646630919546936</v>
+        <v>0.1179736630635873</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6048203020945238</v>
+        <v>1.144333293972139</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.613617542779309</v>
+        <v>3.887400751072732</v>
       </c>
       <c r="C16">
-        <v>0.687654573766622</v>
+        <v>1.665221059629914</v>
       </c>
       <c r="D16">
-        <v>0.04423846743501869</v>
+        <v>0.00632337020543261</v>
       </c>
       <c r="E16">
-        <v>0.09057890790669454</v>
+        <v>0.0404262222159506</v>
       </c>
       <c r="F16">
-        <v>3.36205831491327</v>
+        <v>4.018443025458964</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.650153262963173</v>
+        <v>1.863794188970857</v>
       </c>
       <c r="J16">
-        <v>0.1641578665666401</v>
+        <v>0.1134867152246173</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5880352648396894</v>
+        <v>1.066003315633253</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.572547427185327</v>
+        <v>3.710853379008029</v>
       </c>
       <c r="C17">
-        <v>0.6703461511021374</v>
+        <v>1.588572164772586</v>
       </c>
       <c r="D17">
-        <v>0.04423807830435411</v>
+        <v>0.006116287767136352</v>
       </c>
       <c r="E17">
-        <v>0.09058695373831505</v>
+        <v>0.03968985353082921</v>
       </c>
       <c r="F17">
-        <v>3.335406237059289</v>
+        <v>3.876214056877615</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.639344934870451</v>
+        <v>1.804814560354544</v>
       </c>
       <c r="J17">
-        <v>0.1638655363569015</v>
+        <v>0.1108185665245855</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5778298106269375</v>
+        <v>1.018676860085634</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.549010364526339</v>
+        <v>3.610128979734668</v>
       </c>
       <c r="C18">
-        <v>0.6604293188091219</v>
+        <v>1.544916106505127</v>
       </c>
       <c r="D18">
-        <v>0.04423836686897165</v>
+        <v>0.006000483856879235</v>
       </c>
       <c r="E18">
-        <v>0.0905944626656936</v>
+        <v>0.03927324547624167</v>
       </c>
       <c r="F18">
-        <v>3.320250504437325</v>
+        <v>3.795639613952176</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.633209440244968</v>
+        <v>1.771480458296722</v>
       </c>
       <c r="J18">
-        <v>0.1637038518788003</v>
+        <v>0.109312910407219</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5719934852050628</v>
+        <v>0.9917010067009357</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.541055754982892</v>
+        <v>3.576159497516414</v>
       </c>
       <c r="C19">
-        <v>0.65707823938709</v>
+        <v>1.530205218096626</v>
       </c>
       <c r="D19">
-        <v>0.04423855256579623</v>
+        <v>0.005961809337214241</v>
       </c>
       <c r="E19">
-        <v>0.09059750018187707</v>
+        <v>0.03913334346822595</v>
       </c>
       <c r="F19">
-        <v>3.315148804056179</v>
+        <v>3.768561236738037</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.631145961996253</v>
+        <v>1.760291197599571</v>
       </c>
       <c r="J19">
-        <v>0.1636502157054593</v>
+        <v>0.1088079167900702</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5700231651225494</v>
+        <v>0.9826075690374338</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.576910567530831</v>
+        <v>3.729560508270538</v>
       </c>
       <c r="C20">
-        <v>0.6721846700891092</v>
+        <v>1.596686159190881</v>
       </c>
       <c r="D20">
-        <v>0.04423806669504216</v>
+        <v>0.006137982103498363</v>
       </c>
       <c r="E20">
-        <v>0.09058579912059095</v>
+        <v>0.03976751510301213</v>
       </c>
       <c r="F20">
-        <v>3.338225384131647</v>
+        <v>3.891224947392487</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.640487088095298</v>
+        <v>1.811031042016651</v>
       </c>
       <c r="J20">
-        <v>0.1638959868816414</v>
+        <v>0.1110995506129058</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5789127210671126</v>
+        <v>1.023689003570432</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.698400133904954</v>
+        <v>4.255321872008551</v>
       </c>
       <c r="C21">
-        <v>0.7234022678422889</v>
+        <v>1.825479645128439</v>
       </c>
       <c r="D21">
-        <v>0.04424255710822744</v>
+        <v>0.006772010104781678</v>
       </c>
       <c r="E21">
-        <v>0.09058088875302595</v>
+        <v>0.0419839080652622</v>
       </c>
       <c r="F21">
-        <v>3.417842943363553</v>
+        <v>4.318772026116051</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.672845223313445</v>
+        <v>1.988878043937177</v>
       </c>
       <c r="J21">
-        <v>0.1647989877617348</v>
+        <v>0.1191599743755631</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6091822687481709</v>
+        <v>1.164800052017597</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.778567605100022</v>
+        <v>4.607978075454639</v>
       </c>
       <c r="C22">
-        <v>0.7572246718000883</v>
+        <v>1.979744942621153</v>
       </c>
       <c r="D22">
-        <v>0.0442500582821852</v>
+        <v>0.007224250569982882</v>
       </c>
       <c r="E22">
-        <v>0.09060327562829684</v>
+        <v>0.04350316846069191</v>
       </c>
       <c r="F22">
-        <v>3.471445160357774</v>
+        <v>4.611371012805165</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.694726350248871</v>
+        <v>2.111391888978545</v>
       </c>
       <c r="J22">
-        <v>0.1654469669525866</v>
+        <v>0.1247318414153966</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6292661339806784</v>
+        <v>1.25969757168906</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.735710201098982</v>
+        <v>4.41883994009288</v>
       </c>
       <c r="C23">
-        <v>0.7391408245700859</v>
+        <v>1.896929396750522</v>
       </c>
       <c r="D23">
-        <v>0.04424563669012738</v>
+        <v>0.006978958666462809</v>
       </c>
       <c r="E23">
-        <v>0.09058898814592098</v>
+        <v>0.04268536506951293</v>
       </c>
       <c r="F23">
-        <v>3.442692265771655</v>
+        <v>4.453883539509008</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.682980385206648</v>
+        <v>2.045374639237735</v>
       </c>
       <c r="J23">
-        <v>0.1650958222088548</v>
+        <v>0.1217278042459995</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6185193630266497</v>
+        <v>1.208778368277891</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.574937759198292</v>
+        <v>3.721100619208471</v>
       </c>
       <c r="C24">
-        <v>0.671353369782878</v>
+        <v>1.593016553427617</v>
       </c>
       <c r="D24">
-        <v>0.04423807034798299</v>
+        <v>0.006128164056238283</v>
       </c>
       <c r="E24">
-        <v>0.09058631214195323</v>
+        <v>0.03973238340672935</v>
       </c>
       <c r="F24">
-        <v>3.336950328093394</v>
+        <v>3.884434825106439</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.639970476672161</v>
+        <v>1.808218793385038</v>
       </c>
       <c r="J24">
-        <v>0.1638822003305336</v>
+        <v>0.1109724300443986</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5784230409499003</v>
+        <v>1.021422293665999</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.404778708955803</v>
+        <v>2.999152411797297</v>
       </c>
       <c r="C25">
-        <v>0.5997025805874614</v>
+        <v>1.281283262527836</v>
       </c>
       <c r="D25">
-        <v>0.04424949877610285</v>
+        <v>0.005333702657436046</v>
       </c>
       <c r="E25">
-        <v>0.09069361587740765</v>
+        <v>0.03680837292612082</v>
       </c>
       <c r="F25">
-        <v>3.229524848490968</v>
+        <v>3.316383115918853</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.596674322333826</v>
+        <v>1.574517374640862</v>
       </c>
       <c r="J25">
-        <v>0.1628197483950728</v>
+        <v>0.1004605022363592</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5364553647189467</v>
+        <v>0.8284960943844268</v>
       </c>
       <c r="N25">
         <v>0</v>
